--- a/files/QT/basic_excel.xlsx
+++ b/files/QT/basic_excel.xlsx
@@ -133,7 +133,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -833,7 +833,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/files/QT/basic_excel.xlsx
+++ b/files/QT/basic_excel.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basic operations" sheetId="1" r:id="rId1"/>
     <sheet name="1st sheet - ex4" sheetId="2" r:id="rId2"/>
+    <sheet name="Titanic" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Operations with Excel</t>
   </si>
@@ -125,6 +126,36 @@
   </si>
   <si>
     <t>y=slope*x+intercept</t>
+  </si>
+  <si>
+    <t>How many people survived in each class in proportion of the passengers in that class ?</t>
+  </si>
+  <si>
+    <t>Survived</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>How many people survived in each class in proportion of the total passengers who survived</t>
   </si>
 </sst>
 </file>
@@ -135,7 +166,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +212,29 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -220,7 +274,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -236,8 +290,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -255,8 +310,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="15" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -272,6 +338,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -602,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1018,4 +1085,321 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11">
+      <c r="H1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11">
+      <c r="D2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13">
+        <v>122</v>
+      </c>
+      <c r="E4" s="13">
+        <v>203</v>
+      </c>
+      <c r="F4" s="15">
+        <f>SUM(D4:E4)</f>
+        <v>325</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="16">
+        <f>D4/$F4</f>
+        <v>0.37538461538461537</v>
+      </c>
+      <c r="J4" s="16">
+        <f>E4/$F4</f>
+        <v>0.62461538461538457</v>
+      </c>
+      <c r="K4" s="15">
+        <f>SUM(I4:J4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="13">
+        <v>167</v>
+      </c>
+      <c r="E5" s="13">
+        <v>118</v>
+      </c>
+      <c r="F5" s="15">
+        <f>SUM(D5:E5)</f>
+        <v>285</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" ref="I5:J7" si="0">D5/$F5</f>
+        <v>0.5859649122807018</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.41403508771929826</v>
+      </c>
+      <c r="K5" s="15">
+        <f>SUM(I5:J5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="13">
+        <v>528</v>
+      </c>
+      <c r="E6" s="13">
+        <v>178</v>
+      </c>
+      <c r="F6" s="15">
+        <f>SUM(D6:E6)</f>
+        <v>706</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.74787535410764872</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.25212464589235128</v>
+      </c>
+      <c r="K6" s="15">
+        <f>SUM(I6:J6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="13">
+        <v>673</v>
+      </c>
+      <c r="E7" s="13">
+        <v>212</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" ref="F7:F8" si="1">SUM(D7:E7)</f>
+        <v>885</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.76045197740112991</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.23954802259887006</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" ref="K7:K8" si="2">SUM(I7:J7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="15">
+        <f>SUM(D4:D7)</f>
+        <v>1490</v>
+      </c>
+      <c r="E8" s="15">
+        <f>SUM(E$4:E$7)</f>
+        <v>711</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>2201</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="17">
+        <f>D8/$F8</f>
+        <v>0.67696501590186275</v>
+      </c>
+      <c r="J8" s="17">
+        <f>E8/$F8</f>
+        <v>0.32303498409813719</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="D9" s="15"/>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="D12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="D13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="18">
+        <f>D4/D$8</f>
+        <v>8.1879194630872482E-2</v>
+      </c>
+      <c r="E14" s="18">
+        <f>E4/E$8</f>
+        <v>0.28551336146272854</v>
+      </c>
+      <c r="F14" s="19">
+        <f>F4/F$8</f>
+        <v>0.14766015447523853</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="C15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" ref="D15:F18" si="3">D5/D$8</f>
+        <v>0.11208053691275167</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16596343178621659</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="3"/>
+        <v>0.12948659700136303</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="3"/>
+        <v>0.35436241610738256</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="3"/>
+        <v>0.25035161744022505</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="3"/>
+        <v>0.32076328941390275</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="3"/>
+        <v>0.45167785234899327</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" si="3"/>
+        <v>0.29817158931082982</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="3"/>
+        <v>0.40208995910949569</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="19">
+        <f>E8/E$8</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>